--- a/example/game_06_abyssal_nightfall/enemies.xlsx
+++ b/example/game_06_abyssal_nightfall/enemies.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:S9"/>
+  <dimension ref="A4:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,6 +460,9 @@
       <c r="S4" t="str">
         <v>string</v>
       </c>
+      <c r="T4" t="str">
+        <v>uint</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -519,6 +522,9 @@
       <c r="S5" t="str">
         <v>combatNotes</v>
       </c>
+      <c r="T5" t="str">
+        <v>xp</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -578,6 +584,9 @@
       <c r="S6" t="str">
         <v>Lobs corrupted bile; projectile arc 35 degrees.</v>
       </c>
+      <c r="T6" t="str">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -637,6 +646,9 @@
       <c r="S7" t="str">
         <v>Fires 3-note burst; third note inflicts dread stack.</v>
       </c>
+      <c r="T7" t="str">
+        <v>26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -696,6 +708,9 @@
       <c r="S8" t="str">
         <v>Line cone shockwave; adds sanity bleed over 3s.</v>
       </c>
+      <c r="T8" t="str">
+        <v>32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -755,10 +770,137 @@
       <c r="S9" t="str">
         <v>Sweeping beam telegraph 0.6s; pierces obstacles.</v>
       </c>
+      <c r="T9" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>40</v>
+      </c>
+      <c r="B10" t="str">
+        <v>06</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0005</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Harbor Dredger</v>
+      </c>
+      <c r="E10" t="str">
+        <v>CONSTRUCT</v>
+      </c>
+      <c r="F10" t="str">
+        <v>520</v>
+      </c>
+      <c r="G10" t="str">
+        <v>55</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="I10" t="str">
+        <v>MANUAL</v>
+      </c>
+      <c r="J10" t="str">
+        <v>1.10</v>
+      </c>
+      <c r="K10" t="str">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="M10" t="str">
+        <v>fx/projectiles/dredger_slam.png</v>
+      </c>
+      <c r="N10" t="str">
+        <v>fx/impact/dredger_slam.png</v>
+      </c>
+      <c r="O10" t="str">
+        <v>FIRE</v>
+      </c>
+      <c r="P10" t="str">
+        <v>KINETIC</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>loot:dredger_core</v>
+      </c>
+      <c r="R10" t="str">
+        <v>14</v>
+      </c>
+      <c r="S10" t="str">
+        <v>Heavy mech charges the beacon and causes shock tremors.</v>
+      </c>
+      <c r="T10" t="str">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>40</v>
+      </c>
+      <c r="B11" t="str">
+        <v>06</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0006</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Myriad Fragment</v>
+      </c>
+      <c r="E11" t="str">
+        <v>ABERRATION</v>
+      </c>
+      <c r="F11" t="str">
+        <v>160</v>
+      </c>
+      <c r="G11" t="str">
+        <v>18</v>
+      </c>
+      <c r="H11" t="str">
+        <v>4.8</v>
+      </c>
+      <c r="I11" t="str">
+        <v>BURST</v>
+      </c>
+      <c r="J11" t="str">
+        <v>1.90</v>
+      </c>
+      <c r="K11" t="str">
+        <v>26</v>
+      </c>
+      <c r="L11" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="M11" t="str">
+        <v>fx/projectiles/fragment_dart.png</v>
+      </c>
+      <c r="N11" t="str">
+        <v>fx/impact/fragment_spark.png</v>
+      </c>
+      <c r="O11" t="str">
+        <v>LIGHT</v>
+      </c>
+      <c r="P11" t="str">
+        <v>VOID</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>loot:fragment_cache</v>
+      </c>
+      <c r="R11" t="str">
+        <v>8</v>
+      </c>
+      <c r="S11" t="str">
+        <v>Skittering shards fire dart volleys in packs.</v>
+      </c>
+      <c r="T11" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:S9"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:T11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/enemies.xlsx
+++ b/example/game_06_abyssal_nightfall/enemies.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:T11"/>
+  <dimension ref="A4:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,6 +463,9 @@
       <c r="T4" t="str">
         <v>uint</v>
       </c>
+      <c r="U4" t="str">
+        <v>float</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -525,6 +528,9 @@
       <c r="T5" t="str">
         <v>xp</v>
       </c>
+      <c r="U5" t="str">
+        <v>radius</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -564,10 +570,10 @@
         <v>0.90</v>
       </c>
       <c r="M6" t="str">
-        <v>fx/projectiles/spittle.png</v>
+        <v>ui/assets/fx/projectiles/spittle.png</v>
       </c>
       <c r="N6" t="str">
-        <v>fx/impact/slime.png</v>
+        <v>ui/assets/fx/impact/slime.png</v>
       </c>
       <c r="O6" t="str">
         <v>FIRE</v>
@@ -586,6 +592,9 @@
       </c>
       <c r="T6" t="str">
         <v>18</v>
+      </c>
+      <c r="U6" t="str">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -626,10 +635,10 @@
         <v>0.85</v>
       </c>
       <c r="M7" t="str">
-        <v>fx/projectiles/choir_note.png</v>
+        <v>ui/assets/fx/projectiles/choir_note.png</v>
       </c>
       <c r="N7" t="str">
-        <v>fx/impact/chorus.png</v>
+        <v>ui/assets/fx/impact/chorus.png</v>
       </c>
       <c r="O7" t="str">
         <v>LIGHT</v>
@@ -648,6 +657,9 @@
       </c>
       <c r="T7" t="str">
         <v>26</v>
+      </c>
+      <c r="U7" t="str">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +700,10 @@
         <v>0.00</v>
       </c>
       <c r="M8" t="str">
-        <v>fx/projectiles/howl_wave.png</v>
+        <v>ui/assets/fx/projectiles/howl_wave.png</v>
       </c>
       <c r="N8" t="str">
-        <v>fx/impact/howl.png</v>
+        <v>ui/assets/fx/impact/howl.png</v>
       </c>
       <c r="O8" t="str">
         <v>LIGHT</v>
@@ -710,6 +722,9 @@
       </c>
       <c r="T8" t="str">
         <v>32</v>
+      </c>
+      <c r="U8" t="str">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -750,10 +765,10 @@
         <v>0.50</v>
       </c>
       <c r="M9" t="str">
-        <v>fx/projectiles/null_beam.png</v>
+        <v>ui/assets/fx/projectiles/null_beam.png</v>
       </c>
       <c r="N9" t="str">
-        <v>fx/impact/null_burn.png</v>
+        <v>ui/assets/fx/impact/null_burn.png</v>
       </c>
       <c r="O9" t="str">
         <v>VOID</v>
@@ -772,6 +787,9 @@
       </c>
       <c r="T9" t="str">
         <v>38</v>
+      </c>
+      <c r="U9" t="str">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -812,10 +830,10 @@
         <v>0.00</v>
       </c>
       <c r="M10" t="str">
-        <v>fx/projectiles/dredger_slam.png</v>
+        <v>ui/assets/fx/projectiles/dredger_slam.png</v>
       </c>
       <c r="N10" t="str">
-        <v>fx/impact/dredger_slam.png</v>
+        <v>ui/assets/fx/impact/dredger_slam.png</v>
       </c>
       <c r="O10" t="str">
         <v>FIRE</v>
@@ -834,6 +852,9 @@
       </c>
       <c r="T10" t="str">
         <v>46</v>
+      </c>
+      <c r="U10" t="str">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -874,10 +895,10 @@
         <v>0.75</v>
       </c>
       <c r="M11" t="str">
-        <v>fx/projectiles/fragment_dart.png</v>
+        <v>ui/assets/fx/projectiles/fragment_dart.png</v>
       </c>
       <c r="N11" t="str">
-        <v>fx/impact/fragment_spark.png</v>
+        <v>ui/assets/fx/impact/fragment_spark.png</v>
       </c>
       <c r="O11" t="str">
         <v>LIGHT</v>
@@ -896,11 +917,14 @@
       </c>
       <c r="T11" t="str">
         <v>20</v>
+      </c>
+      <c r="U11" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:T11"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:U11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/enemies.xlsx
+++ b/example/game_06_abyssal_nightfall/enemies.xlsx
@@ -549,10 +549,10 @@
         <v>SHAMBLER</v>
       </c>
       <c r="F6" t="str">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="G6" t="str">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H6" t="str">
         <v>3.4</v>
@@ -591,7 +591,7 @@
         <v>Lobs corrupted bile; projectile arc 35 degrees.</v>
       </c>
       <c r="T6" t="str">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U6" t="str">
         <v>12</v>
@@ -614,10 +614,10 @@
         <v>CULTIST</v>
       </c>
       <c r="F7" t="str">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="G7" t="str">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H7" t="str">
         <v>3.1</v>
@@ -656,7 +656,7 @@
         <v>Fires 3-note burst; third note inflicts dread stack.</v>
       </c>
       <c r="T7" t="str">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="U7" t="str">
         <v>14</v>
@@ -679,10 +679,10 @@
         <v>ABERRATION</v>
       </c>
       <c r="F8" t="str">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="G8" t="str">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H8" t="str">
         <v>4.0</v>
@@ -721,7 +721,7 @@
         <v>Line cone shockwave; adds sanity bleed over 3s.</v>
       </c>
       <c r="T8" t="str">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U8" t="str">
         <v>18</v>
@@ -744,10 +744,10 @@
         <v>CONSTRUCT</v>
       </c>
       <c r="F9" t="str">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="G9" t="str">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H9" t="str">
         <v>2.6</v>
@@ -786,7 +786,7 @@
         <v>Sweeping beam telegraph 0.6s; pierces obstacles.</v>
       </c>
       <c r="T9" t="str">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="U9" t="str">
         <v>20</v>
@@ -809,10 +809,10 @@
         <v>CONSTRUCT</v>
       </c>
       <c r="F10" t="str">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="G10" t="str">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H10" t="str">
         <v>2.2</v>
@@ -851,7 +851,7 @@
         <v>Heavy mech charges the beacon and causes shock tremors.</v>
       </c>
       <c r="T10" t="str">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U10" t="str">
         <v>24</v>
@@ -874,10 +874,10 @@
         <v>ABERRATION</v>
       </c>
       <c r="F11" t="str">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="G11" t="str">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" t="str">
         <v>4.8</v>
@@ -916,7 +916,7 @@
         <v>Skittering shards fire dart volleys in packs.</v>
       </c>
       <c r="T11" t="str">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U11" t="str">
         <v>10</v>

--- a/example/game_06_abyssal_nightfall/enemies.xlsx
+++ b/example/game_06_abyssal_nightfall/enemies.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:U11"/>
+  <dimension ref="A4:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,10 +428,10 @@
         <v>float</v>
       </c>
       <c r="I4" t="str">
+        <v>float</v>
+      </c>
+      <c r="J4" t="str">
         <v>AttackStyle</v>
-      </c>
-      <c r="J4" t="str">
-        <v>float</v>
       </c>
       <c r="K4" t="str">
         <v>float</v>
@@ -440,31 +440,46 @@
         <v>float</v>
       </c>
       <c r="M4" t="str">
-        <v>string</v>
+        <v>float</v>
       </c>
       <c r="N4" t="str">
         <v>string</v>
       </c>
       <c r="O4" t="str">
-        <v>DamageType</v>
+        <v>string</v>
       </c>
       <c r="P4" t="str">
         <v>DamageType</v>
       </c>
       <c r="Q4" t="str">
+        <v>DamageType</v>
+      </c>
+      <c r="R4" t="str">
         <v>string</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <v>uint</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <v>string</v>
       </c>
-      <c r="T4" t="str">
+      <c r="U4" t="str">
         <v>uint</v>
       </c>
-      <c r="U4" t="str">
+      <c r="V4" t="str">
+        <v>string</v>
+      </c>
+      <c r="W4" t="str">
         <v>float</v>
+      </c>
+      <c r="X4" t="str">
+        <v>string</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>string</v>
+      </c>
+      <c r="Z4" t="str">
+        <v>string</v>
       </c>
     </row>
     <row r="5">
@@ -493,43 +508,58 @@
         <v>moveSpeed</v>
       </c>
       <c r="I5" t="str">
+        <v>radius</v>
+      </c>
+      <c r="J5" t="str">
         <v>attackStyle</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <v>attackInterval</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <v>projectileSpeed</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <v>projectileLifetime</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <v>projectileSprite</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <v>impactSprite</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <v>weakness</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <v>resistance</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <v>lootTable</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <v>sanityDamage</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <v>combatNotes</v>
       </c>
-      <c r="T5" t="str">
+      <c r="U5" t="str">
         <v>xp</v>
       </c>
-      <c r="U5" t="str">
-        <v>radius</v>
+      <c r="V5" t="str">
+        <v>sprite</v>
+      </c>
+      <c r="W5" t="str">
+        <v>spriteScale</v>
+      </c>
+      <c r="X5" t="str">
+        <v>deathSprite</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>deathSfx</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>attackSfx</v>
       </c>
     </row>
     <row r="6">
@@ -543,58 +573,73 @@
         <v>0001</v>
       </c>
       <c r="D6" t="str">
-        <v>Rift Shambler</v>
+        <v>裂界餍爬者</v>
       </c>
       <c r="E6" t="str">
         <v>SHAMBLER</v>
       </c>
       <c r="F6" t="str">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="G6" t="str">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H6" t="str">
         <v>3.4</v>
       </c>
       <c r="I6" t="str">
+        <v>12</v>
+      </c>
+      <c r="J6" t="str">
         <v>AUTO</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <v>1.80</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <v>14</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <v>0.90</v>
       </c>
-      <c r="M6" t="str">
-        <v>ui/assets/fx/projectiles/spittle.png</v>
-      </c>
       <c r="N6" t="str">
-        <v>ui/assets/fx/impact/slime.png</v>
+        <v>fx/projectiles/spittle.png</v>
       </c>
       <c r="O6" t="str">
+        <v>fx/impact/slime.png</v>
+      </c>
+      <c r="P6" t="str">
         <v>FIRE</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <v>VOID</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <v>loot:ichor_minor</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <v>6</v>
       </c>
-      <c r="S6" t="str">
-        <v>Lobs corrupted bile; projectile arc 35 degrees.</v>
-      </c>
       <c r="T6" t="str">
-        <v>15</v>
+        <v>投掷腐质胆汁，落地后留下灼蚀雾。</v>
       </c>
       <c r="U6" t="str">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="V6" t="str">
+        <v>ui/assets/topdown/top-down-shooter/characters/head/13.png</v>
+      </c>
+      <c r="W6" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="X6" t="str">
+        <v>ui/assets/topdown/top-down-shooter/effects/explosion.png</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/explosion-2.wav</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/shoot-2.wav</v>
       </c>
     </row>
     <row r="7">
@@ -608,58 +653,73 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>Choir Acolyte</v>
+        <v>聆渊歌祭徒</v>
       </c>
       <c r="E7" t="str">
         <v>CULTIST</v>
       </c>
       <c r="F7" t="str">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="G7" t="str">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H7" t="str">
         <v>3.1</v>
       </c>
       <c r="I7" t="str">
+        <v>14</v>
+      </c>
+      <c r="J7" t="str">
         <v>BURST</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <v>2.40</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <v>22</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <v>0.85</v>
       </c>
-      <c r="M7" t="str">
-        <v>ui/assets/fx/projectiles/choir_note.png</v>
-      </c>
       <c r="N7" t="str">
-        <v>ui/assets/fx/impact/chorus.png</v>
+        <v>fx/projectiles/choir_note.png</v>
       </c>
       <c r="O7" t="str">
+        <v>fx/impact/chorus.png</v>
+      </c>
+      <c r="P7" t="str">
         <v>LIGHT</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <v>VOID</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <v>loot:choir_cache</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <v>9</v>
       </c>
-      <c r="S7" t="str">
-        <v>Fires 3-note burst; third note inflicts dread stack.</v>
-      </c>
       <c r="T7" t="str">
-        <v>20</v>
+        <v>三连音符袭击，第三发附加畏惧层。</v>
       </c>
       <c r="U7" t="str">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="V7" t="str">
+        <v>ui/assets/topdown/top-down-shooter/characters/head/7.png</v>
+      </c>
+      <c r="W7" t="str">
+        <v>0.92</v>
+      </c>
+      <c r="X7" t="str">
+        <v>ui/assets/topdown/top-down-shooter/effects/4.png</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/death.wav</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/shoot-3.wav</v>
       </c>
     </row>
     <row r="8">
@@ -673,58 +733,73 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>Abyssal Howler</v>
+        <v>渊喉呼嚎者</v>
       </c>
       <c r="E8" t="str">
         <v>ABERRATION</v>
       </c>
       <c r="F8" t="str">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="G8" t="str">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H8" t="str">
         <v>4.0</v>
       </c>
       <c r="I8" t="str">
+        <v>16</v>
+      </c>
+      <c r="J8" t="str">
         <v>MANUAL</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <v>2.80</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <v>0</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <v>0.00</v>
       </c>
-      <c r="M8" t="str">
-        <v>ui/assets/fx/projectiles/howl_wave.png</v>
-      </c>
       <c r="N8" t="str">
-        <v>ui/assets/fx/impact/howl.png</v>
+        <v>fx/projectiles/howl_wave.png</v>
       </c>
       <c r="O8" t="str">
+        <v>fx/impact/howl.png</v>
+      </c>
+      <c r="P8" t="str">
         <v>LIGHT</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <v>FROST</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <v>loot:howler_pouch</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <v>12</v>
       </c>
-      <c r="S8" t="str">
-        <v>Line cone shockwave; adds sanity bleed over 3s.</v>
-      </c>
       <c r="T8" t="str">
-        <v>25</v>
+        <v>扇形震荡波附加 3 秒理智流失。</v>
       </c>
       <c r="U8" t="str">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="V8" t="str">
+        <v>ui/assets/topdown/top-down-shooter/characters/head/4.png</v>
+      </c>
+      <c r="W8" t="str">
+        <v>0.95</v>
+      </c>
+      <c r="X8" t="str">
+        <v>ui/assets/topdown/top-down-shooter/effects/3.png</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/explosion-3.wav</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/sword-2.wav</v>
       </c>
     </row>
     <row r="9">
@@ -738,58 +813,73 @@
         <v>0004</v>
       </c>
       <c r="D9" t="str">
-        <v>Null Sentinel</v>
+        <v>虚壳哨兵</v>
       </c>
       <c r="E9" t="str">
         <v>CONSTRUCT</v>
       </c>
       <c r="F9" t="str">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="G9" t="str">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H9" t="str">
         <v>2.6</v>
       </c>
       <c r="I9" t="str">
+        <v>18</v>
+      </c>
+      <c r="J9" t="str">
         <v>BEAM</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <v>1.45</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <v>60</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <v>0.50</v>
       </c>
-      <c r="M9" t="str">
-        <v>ui/assets/fx/projectiles/null_beam.png</v>
-      </c>
       <c r="N9" t="str">
-        <v>ui/assets/fx/impact/null_burn.png</v>
+        <v>fx/projectiles/null_beam.png</v>
       </c>
       <c r="O9" t="str">
+        <v>fx/impact/null_burn.png</v>
+      </c>
+      <c r="P9" t="str">
         <v>VOID</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <v>KINETIC</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <v>loot:sentinel_cache</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <v>10</v>
       </c>
-      <c r="S9" t="str">
-        <v>Sweeping beam telegraph 0.6s; pierces obstacles.</v>
-      </c>
       <c r="T9" t="str">
-        <v>30</v>
+        <v>扫射光束前有 0.6 秒警示。</v>
       </c>
       <c r="U9" t="str">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="V9" t="str">
+        <v>ui/assets/topdown/top-down-shooter/characters/turret/1.png</v>
+      </c>
+      <c r="W9" t="str">
+        <v>1.05</v>
+      </c>
+      <c r="X9" t="str">
+        <v>ui/assets/topdown/top-down-shooter/effects/5.png</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/explosion-1.wav</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/alert.wav</v>
       </c>
     </row>
     <row r="10">
@@ -803,58 +893,73 @@
         <v>0005</v>
       </c>
       <c r="D10" t="str">
-        <v>Harbor Dredger</v>
+        <v>堕港掘锚者</v>
       </c>
       <c r="E10" t="str">
         <v>CONSTRUCT</v>
       </c>
       <c r="F10" t="str">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="G10" t="str">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H10" t="str">
         <v>2.2</v>
       </c>
       <c r="I10" t="str">
+        <v>24</v>
+      </c>
+      <c r="J10" t="str">
         <v>MANUAL</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <v>1.10</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <v>0</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <v>0.00</v>
       </c>
-      <c r="M10" t="str">
-        <v>ui/assets/fx/projectiles/dredger_slam.png</v>
-      </c>
       <c r="N10" t="str">
-        <v>ui/assets/fx/impact/dredger_slam.png</v>
+        <v>fx/projectiles/dredger_slam.png</v>
       </c>
       <c r="O10" t="str">
+        <v>fx/impact/dredger_slam.png</v>
+      </c>
+      <c r="P10" t="str">
         <v>FIRE</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <v>KINETIC</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <v>loot:dredger_core</v>
       </c>
-      <c r="R10" t="str">
+      <c r="S10" t="str">
         <v>14</v>
       </c>
-      <c r="S10" t="str">
-        <v>Heavy mech charges the beacon and causes shock tremors.</v>
-      </c>
       <c r="T10" t="str">
-        <v>40</v>
+        <v>冲撞灯塔并引发地震波，需快速躲避。</v>
       </c>
       <c r="U10" t="str">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="V10" t="str">
+        <v>ui/assets/topdown/top-down-shooter/characters/tank.png</v>
+      </c>
+      <c r="W10" t="str">
+        <v>0.85</v>
+      </c>
+      <c r="X10" t="str">
+        <v>ui/assets/topdown/top-down-shooter/effects/explosion.png</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/explosion-3.wav</v>
+      </c>
+      <c r="Z10" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/flame-thrower.wav</v>
       </c>
     </row>
     <row r="11">
@@ -868,63 +973,78 @@
         <v>0006</v>
       </c>
       <c r="D11" t="str">
-        <v>Myriad Fragment</v>
+        <v>无数碎影</v>
       </c>
       <c r="E11" t="str">
         <v>ABERRATION</v>
       </c>
       <c r="F11" t="str">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="G11" t="str">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11" t="str">
         <v>4.8</v>
       </c>
       <c r="I11" t="str">
+        <v>10</v>
+      </c>
+      <c r="J11" t="str">
         <v>BURST</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <v>1.90</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <v>26</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <v>0.75</v>
       </c>
-      <c r="M11" t="str">
-        <v>ui/assets/fx/projectiles/fragment_dart.png</v>
-      </c>
       <c r="N11" t="str">
-        <v>ui/assets/fx/impact/fragment_spark.png</v>
+        <v>fx/projectiles/fragment_dart.png</v>
       </c>
       <c r="O11" t="str">
+        <v>fx/impact/fragment_spark.png</v>
+      </c>
+      <c r="P11" t="str">
         <v>LIGHT</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <v>VOID</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <v>loot:fragment_cache</v>
       </c>
-      <c r="R11" t="str">
+      <c r="S11" t="str">
         <v>8</v>
       </c>
-      <c r="S11" t="str">
-        <v>Skittering shards fire dart volleys in packs.</v>
-      </c>
       <c r="T11" t="str">
-        <v>12</v>
+        <v>群猎碎片成群而行，形成交叉弹雨。</v>
       </c>
       <c r="U11" t="str">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="V11" t="str">
+        <v>ui/assets/topdown/top-down-shooter/effects/1.png</v>
+      </c>
+      <c r="W11" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="X11" t="str">
+        <v>ui/assets/topdown/top-down-shooter/effects/2.png</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/shoot-destroy.wav</v>
+      </c>
+      <c r="Z11" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/shoot-1.wav</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:U11"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:Z11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/enemies.xlsx
+++ b/example/game_06_abyssal_nightfall/enemies.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:Z11"/>
+  <dimension ref="A4:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +597,7 @@
         <v>1.80</v>
       </c>
       <c r="L6" t="str">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M6" t="str">
         <v>0.90</v>
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="V6" t="str">
-        <v>ui/assets/topdown/top-down-shooter/characters/head/13.png</v>
+        <v>ui/assets/topdown/top-down-shooter/characters/body/3.png</v>
       </c>
       <c r="W6" t="str">
         <v>0.9</v>
@@ -707,10 +707,10 @@
         <v>26</v>
       </c>
       <c r="V7" t="str">
-        <v>ui/assets/topdown/top-down-shooter/characters/head/7.png</v>
+        <v>ui/assets/topdown/top-down-shooter/characters/body/2.png</v>
       </c>
       <c r="W7" t="str">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="X7" t="str">
         <v>ui/assets/topdown/top-down-shooter/effects/4.png</v>
@@ -745,22 +745,22 @@
         <v>36</v>
       </c>
       <c r="H8" t="str">
-        <v>4.0</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="str">
         <v>16</v>
       </c>
       <c r="J8" t="str">
-        <v>MANUAL</v>
+        <v>BURST</v>
       </c>
       <c r="K8" t="str">
-        <v>2.80</v>
+        <v>2.60</v>
       </c>
       <c r="L8" t="str">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M8" t="str">
-        <v>0.00</v>
+        <v>0.70</v>
       </c>
       <c r="N8" t="str">
         <v>fx/projectiles/howl_wave.png</v>
@@ -787,10 +787,10 @@
         <v>32</v>
       </c>
       <c r="V8" t="str">
-        <v>ui/assets/topdown/top-down-shooter/characters/head/4.png</v>
+        <v>ui/assets/topdown/top-down-shooter/characters/body/1.png</v>
       </c>
       <c r="W8" t="str">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="X8" t="str">
         <v>ui/assets/topdown/top-down-shooter/effects/3.png</v>
@@ -837,10 +837,10 @@
         <v>1.45</v>
       </c>
       <c r="L9" t="str">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M9" t="str">
-        <v>0.50</v>
+        <v>0.60</v>
       </c>
       <c r="N9" t="str">
         <v>fx/projectiles/null_beam.png</v>
@@ -867,7 +867,7 @@
         <v>38</v>
       </c>
       <c r="V9" t="str">
-        <v>ui/assets/topdown/top-down-shooter/characters/turret/1.png</v>
+        <v>ui/assets/topdown/top-down-shooter/characters/turret/2.png</v>
       </c>
       <c r="W9" t="str">
         <v>1.05</v>
@@ -979,13 +979,13 @@
         <v>ABERRATION</v>
       </c>
       <c r="F11" t="str">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="G11" t="str">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H11" t="str">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="str">
         <v>10</v>
@@ -994,13 +994,13 @@
         <v>BURST</v>
       </c>
       <c r="K11" t="str">
-        <v>1.90</v>
+        <v>2.40</v>
       </c>
       <c r="L11" t="str">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M11" t="str">
-        <v>0.75</v>
+        <v>0.90</v>
       </c>
       <c r="N11" t="str">
         <v>fx/projectiles/fragment_dart.png</v>
@@ -1018,19 +1018,19 @@
         <v>loot:fragment_cache</v>
       </c>
       <c r="S11" t="str">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T11" t="str">
-        <v>群猎碎片成群而行，形成交叉弹雨。</v>
+        <v>碎影快速游走射击，首波练习走位。</v>
       </c>
       <c r="U11" t="str">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V11" t="str">
-        <v>ui/assets/topdown/top-down-shooter/effects/1.png</v>
+        <v>ui/assets/topdown/top-down-shooter/characters/head/9.png</v>
       </c>
       <c r="W11" t="str">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="X11" t="str">
         <v>ui/assets/topdown/top-down-shooter/effects/2.png</v>
@@ -1040,11 +1040,91 @@
       </c>
       <c r="Z11" t="str">
         <v>ui/assets/topdown/top-down-shooter/sounds/shoot-1.wav</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>40</v>
+      </c>
+      <c r="B12" t="str">
+        <v>06</v>
+      </c>
+      <c r="C12" t="str">
+        <v>0007</v>
+      </c>
+      <c r="D12" t="str">
+        <v>虚潮行者</v>
+      </c>
+      <c r="E12" t="str">
+        <v>SHAMBLER</v>
+      </c>
+      <c r="F12" t="str">
+        <v>150</v>
+      </c>
+      <c r="G12" t="str">
+        <v>12</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="I12" t="str">
+        <v>16</v>
+      </c>
+      <c r="J12" t="str">
+        <v>MANUAL</v>
+      </c>
+      <c r="K12" t="str">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <v>0</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v>LIGHT</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>VOID</v>
+      </c>
+      <c r="R12" t="str">
+        <v>loot:ichor_minor</v>
+      </c>
+      <c r="S12" t="str">
+        <v>4</v>
+      </c>
+      <c r="T12" t="str">
+        <v>只会贴身缠斗的虚潮行者，用来熟悉位移。</v>
+      </c>
+      <c r="U12" t="str">
+        <v>14</v>
+      </c>
+      <c r="V12" t="str">
+        <v>ui/assets/topdown/top-down-shooter/characters/head/5.png</v>
+      </c>
+      <c r="W12" t="str">
+        <v>0.88</v>
+      </c>
+      <c r="X12" t="str">
+        <v>ui/assets/topdown/top-down-shooter/effects/explosion.png</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>ui/assets/topdown/top-down-shooter/sounds/death.wav</v>
+      </c>
+      <c r="Z12" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:Z11"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:Z12"/>
   </ignoredErrors>
 </worksheet>
 </file>